--- a/Demo_Excel.xlsx
+++ b/Demo_Excel.xlsx
@@ -445,8 +445,8 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2135868496"/>
-        <c:axId val="-2135865264"/>
+        <c:axId val="-2143207664"/>
+        <c:axId val="-2143211136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -560,11 +560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135858240"/>
-        <c:axId val="-2135861392"/>
+        <c:axId val="-2143218128"/>
+        <c:axId val="-2143214768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135868496"/>
+        <c:axId val="-2143207664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135865264"/>
+        <c:crossAx val="-2143211136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135865264"/>
+        <c:axId val="-2143211136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,12 +665,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135868496"/>
+        <c:crossAx val="-2143207664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135861392"/>
+        <c:axId val="-2143214768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,12 +707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135858240"/>
+        <c:crossAx val="-2143218128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2135858240"/>
+        <c:axId val="-2143218128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -721,7 +721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135861392"/>
+        <c:crossAx val="-2143214768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1614,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L300"/>
+  <dimension ref="A1:K300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1628,7 +1628,7 @@
     <col min="11" max="11" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>51.7</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>50.6</v>
       </c>
@@ -1698,11 +1698,8 @@
         <f>NORMDIST(F2,AVERAGE(A:A),STDEV(A:A),0)</f>
         <v>2.6544279512124899E-3</v>
       </c>
-      <c r="L2">
-        <v>9.0063777020586505E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>57.9</v>
       </c>
@@ -1730,11 +1727,8 @@
         <f>NORMDIST(F3,AVERAGE(A:A),STDEV(A:A),0)</f>
         <v>7.4846771116892719E-3</v>
       </c>
-      <c r="L3">
-        <v>2.8096408186431198E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>56.9</v>
       </c>
@@ -1762,11 +1756,8 @@
         <f>NORMDIST(F4,AVERAGE(A:A),STDEV(A:A),0)</f>
         <v>1.8645440075093674E-2</v>
       </c>
-      <c r="L4">
-        <v>7.81946570524783E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>56.7</v>
       </c>
@@ -1790,11 +1781,8 @@
         <f t="shared" si="0"/>
         <v>4.1036437127846104E-2</v>
       </c>
-      <c r="L5">
-        <v>1.94491224711991E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>56.7</v>
       </c>
@@ -1811,11 +1799,8 @@
         <f t="shared" si="0"/>
         <v>7.979287204340807E-2</v>
       </c>
-      <c r="L6">
-        <v>4.3329718395781799E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>55.3</v>
       </c>
@@ -1832,11 +1817,8 @@
         <f t="shared" si="0"/>
         <v>0.13707428455321383</v>
       </c>
-      <c r="L7">
-        <v>8.6706971349645695E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>56.1</v>
       </c>
@@ -1853,11 +1835,8 @@
         <f t="shared" si="0"/>
         <v>0.20803926897854905</v>
       </c>
-      <c r="L8">
-        <v>0.15640514793070501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>53.7</v>
       </c>
@@ -1874,11 +1853,8 @@
         <f t="shared" si="0"/>
         <v>0.27895367738622823</v>
       </c>
-      <c r="L9">
-        <v>0.25547156657893699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>54.5</v>
       </c>
@@ -1895,11 +1871,8 @@
         <f t="shared" si="0"/>
         <v>0.33045802551264419</v>
       </c>
-      <c r="L10">
-        <v>0.38003198315768799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>56.9</v>
       </c>
@@ -1916,11 +1889,8 @@
         <f t="shared" si="0"/>
         <v>0.34585810447718562</v>
       </c>
-      <c r="L11">
-        <v>0.51857451962909895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>51.9</v>
       </c>
@@ -1937,11 +1907,8 @@
         <f t="shared" si="0"/>
         <v>0.31979896284984249</v>
       </c>
-      <c r="L12">
-        <v>0.65488727785399903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>52.1</v>
       </c>
@@ -1958,11 +1925,8 @@
         <f t="shared" si="0"/>
         <v>0.26124836770288934</v>
       </c>
-      <c r="L13">
-        <v>0.77352984749440401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>55.1</v>
       </c>
@@ -1979,11 +1943,8 @@
         <f t="shared" si="0"/>
         <v>0.18855044468586035</v>
       </c>
-      <c r="L14">
-        <v>0.86487673792884701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>54.9</v>
       </c>
@@ -2000,11 +1961,8 @@
         <f t="shared" si="0"/>
         <v>0.12022616028138557</v>
       </c>
-      <c r="L15">
-        <v>0.92709170237038896</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>54.7</v>
       </c>
@@ -2021,11 +1979,8 @@
         <f t="shared" si="0"/>
         <v>6.7727934919968202E-2</v>
       </c>
-      <c r="L16">
-        <v>0.96457526085192302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>55.3</v>
       </c>
@@ -2042,11 +1997,8 @@
         <f t="shared" si="0"/>
         <v>3.3708088947718144E-2</v>
       </c>
-      <c r="L17">
-        <v>0.98455217094056202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>55.3</v>
       </c>
@@ -2063,11 +2015,8 @@
         <f t="shared" si="0"/>
         <v>1.4821694905806111E-2</v>
       </c>
-      <c r="L18">
-        <v>0.99397005353843804</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>54.5</v>
       </c>
@@ -2084,11 +2033,8 @@
         <f t="shared" si="0"/>
         <v>5.7578327842217961E-3</v>
       </c>
-      <c r="L19">
-        <v>0.99789750440816405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>54.9</v>
       </c>
@@ -2105,11 +2051,8 @@
         <f t="shared" si="0"/>
         <v>1.9761398119415904E-3</v>
       </c>
-      <c r="L20">
-        <v>0.99934625994122095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>54.5</v>
       </c>
@@ -2126,61 +2069,58 @@
         <f>NORMDIST(F21,AVERAGE(A:A),STDEV(A:A),0)</f>
         <v>5.992026534312946E-4</v>
       </c>
-      <c r="L21">
-        <v>0.99981897557412802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>55.3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>54.9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>54.3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>53.7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>53.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>53.7</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>53.1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>54.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>53.1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>53.9</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>53.5</v>
       </c>
